--- a/labs/module 2/lab17/Task1_data.xlsx
+++ b/labs/module 2/lab17/Task1_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarah\Documents\IronSarah\labs\module 2\lab17\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33A972C7-D891-4CA6-A83D-73B5A2A174E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D543D6-26FA-4ABC-A6A0-045C99DF84DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19992" windowHeight="12792" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="425">
   <si>
     <t>Iraq</t>
   </si>
@@ -1330,12 +1330,38 @@
   <si>
     <t>Equation</t>
   </si>
+  <si>
+    <r>
+      <t>y = 0,0187x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + 0,0519x + 2,6289</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1374,13 +1400,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1395,7 +1435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1414,6 +1454,7 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -20301,10 +20342,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{198BF225-BA60-4904-980F-CD2C4166811E}">
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="X15" sqref="X15"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1:Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -20315,7 +20356,7 @@
     <col min="23" max="23" width="12.26171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="D1">
         <v>2000</v>
       </c>
@@ -20376,8 +20417,14 @@
       <c r="W1">
         <v>2019</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="X1" s="10">
+        <v>2020</v>
+      </c>
+      <c r="Y1" s="10">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>384</v>
       </c>
@@ -20447,8 +20494,10 @@
       <c r="W2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>250</v>
       </c>
@@ -20518,10 +20567,21 @@
       <c r="W3">
         <v>11.0647974014282</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="X3" s="10">
+        <f>0.0187*20*20+0.0519*20+2.6289</f>
+        <v>11.1469</v>
+      </c>
+      <c r="Y3" s="10">
+        <f>0.0187*21*21+0.0519*21+2.6289</f>
+        <v>11.9655</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="16.5" x14ac:dyDescent="0.55000000000000004">
       <c r="W5" t="s">
         <v>423</v>
+      </c>
+      <c r="X5" t="s">
+        <v>424</v>
       </c>
     </row>
   </sheetData>
